--- a/汇览建筑装饰/项目总预算表.xlsx
+++ b/汇览建筑装饰/项目总预算表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\github\linginging\demo\汇览建筑装饰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\linginging\demo\汇览建筑装饰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B6C9A8-4330-4014-B177-A752816082A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F11E87-A9A9-4BD2-8DB3-E7319F629099}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2737" yWindow="255" windowWidth="16141" windowHeight="10650" activeTab="1" xr2:uid="{F5CDC02B-20F0-41A9-8998-9B06DDB0C311}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5CDC02B-20F0-41A9-8998-9B06DDB0C311}"/>
   </bookViews>
   <sheets>
     <sheet name="启动成本" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>1.5*430*12=7740</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>设计人员或设计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +646,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -989,89 +1000,89 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" customWidth="1"/>
-    <col min="7" max="7" width="13.53125" customWidth="1"/>
-    <col min="8" max="8" width="32.796875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14">
         <f>SUM(D8,D19,D25,D30,D34,D37)</f>
-        <v>290600</v>
-      </c>
-      <c r="E4" s="31"/>
+        <v>282600</v>
+      </c>
+      <c r="E4" s="32"/>
       <c r="F4" s="14">
         <f>SUM(F8,F19,F25,F30,F34,F37)</f>
         <v>1800</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="35"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1087,11 +1098,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,16 +1116,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="13">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="13"/>
@@ -1123,31 +1134,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D5:D7)</f>
-        <v>59600</v>
+        <v>51600</v>
       </c>
       <c r="E8" s="22">
         <f>D8/$D$4</f>
-        <v>0.2050929112181693</v>
+        <v>0.18259023354564755</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1161,11 +1172,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1177,11 +1188,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,11 +1204,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1209,11 +1220,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,11 +1236,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,11 +1252,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,11 +1268,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,11 +1284,11 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,11 +1300,11 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="10" t="s">
         <v>58</v>
       </c>
@@ -1307,11 +1318,11 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1332,7 @@
       </c>
       <c r="E19" s="22">
         <f>D19/$D$4</f>
-        <v>0.38472126634549209</v>
+        <v>0.39561217268223636</v>
       </c>
       <c r="F19" s="12">
         <f>SUM(F9:F18)</f>
@@ -1333,11 +1344,11 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1351,11 +1362,11 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1369,11 +1380,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1383,11 +1394,11 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1399,9 +1410,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="23" t="s">
         <v>83</v>
       </c>
@@ -1413,11 +1424,11 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
@@ -1427,17 +1438,17 @@
       </c>
       <c r="E25" s="22">
         <f>D25/$D$4</f>
-        <v>9.0158293186510668E-2</v>
+        <v>9.2710544939844305E-2</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1451,11 +1462,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
@@ -1467,11 +1478,11 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="10" t="s">
         <v>55</v>
       </c>
@@ -1483,11 +1494,11 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
@@ -1497,11 +1508,11 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1511,17 +1522,17 @@
       </c>
       <c r="E30" s="22">
         <f>D30/$D$4</f>
-        <v>7.9146593255333797E-2</v>
+        <v>8.1387119603680114E-2</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1535,9 +1546,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="23" t="s">
         <v>84</v>
       </c>
@@ -1549,11 +1560,11 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1563,11 +1574,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
@@ -1577,17 +1588,17 @@
       </c>
       <c r="E34" s="22">
         <f>D34/$D$4</f>
-        <v>3.4411562284927734E-2</v>
+        <v>3.5385704175513094E-2</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1601,11 +1612,11 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
@@ -1617,11 +1628,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1642,7 @@
       </c>
       <c r="E37" s="22">
         <f>D37/$D$4</f>
-        <v>0.20646937370956642</v>
+        <v>0.21231422505307856</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1662,96 +1673,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00F570-B098-4C3E-8085-4BE5BB49B600}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.46484375" customWidth="1"/>
-    <col min="5" max="5" width="16.46484375" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" customWidth="1"/>
-    <col min="7" max="7" width="16.46484375" customWidth="1"/>
-    <col min="8" max="8" width="41.86328125" customWidth="1"/>
-    <col min="10" max="10" width="32.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14">
-        <f>SUM(D13,D18,D24,D26)</f>
-        <v>35400</v>
-      </c>
-      <c r="E4" s="38"/>
+        <f>SUM(D13,D18,D26,D28)</f>
+        <v>41700</v>
+      </c>
+      <c r="E4" s="39"/>
       <c r="F4" s="14">
-        <f>SUM(F13,F18,F24,F26)</f>
-        <v>400800</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+        <f>SUM(F13,F18,F26,F28)</f>
+        <v>476400</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1770,32 +1781,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="28">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="0">D6*12</f>
-        <v>72000</v>
+        <v>120000</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,9 +1823,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="36"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="23" t="s">
         <v>85</v>
       </c>
@@ -1826,11 +1839,11 @@
       <c r="G8" s="19"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>4</v>
-      </c>
-      <c r="B9" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1840,11 +1853,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>5</v>
-      </c>
-      <c r="B10" s="36"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1854,11 +1867,11 @@
       <c r="G10" s="19"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
@@ -1873,11 +1886,11 @@
       <c r="G11" s="19"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>7</v>
-      </c>
-      <c r="B12" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1887,37 +1900,37 @@
       <c r="G12" s="19"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>8</v>
-      </c>
-      <c r="B13" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="38"/>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="12">
         <f>SUM(D5:D12)</f>
-        <v>24500</v>
+        <v>28500</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" ref="E13:E24" si="2">D13/$D$4</f>
-        <v>0.69209039548022599</v>
+        <f t="shared" ref="E13:E26" si="2">D13/$D$4</f>
+        <v>0.68345323741007191</v>
       </c>
       <c r="F13" s="12">
         <f>SUM(F5:F12)</f>
-        <v>270000</v>
+        <v>318000</v>
       </c>
       <c r="G13" s="20">
         <f>F13/$F$4</f>
-        <v>0.67365269461077848</v>
+        <v>0.66750629722921917</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1928,7 +1941,7 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F22" si="3">D14*12</f>
+        <f t="shared" ref="F14:F24" si="3">D14*12</f>
         <v>51600</v>
       </c>
       <c r="G14" s="19"/>
@@ -1936,11 +1949,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>10</v>
-      </c>
-      <c r="B15" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="34"/>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1957,30 +1970,30 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>11</v>
-      </c>
-      <c r="B16" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="34"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="25">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="9">
         <f t="shared" si="3"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>12</v>
-      </c>
-      <c r="B17" s="33"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1995,37 +2008,37 @@
       <c r="G17" s="19"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>13</v>
-      </c>
-      <c r="B18" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="12">
         <f>SUM(D14:D17)</f>
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="2"/>
-        <v>0.15536723163841809</v>
+        <v>0.11510791366906475</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(F14:F17)</f>
-        <v>66000</v>
+        <v>57600</v>
       </c>
       <c r="G18" s="20">
         <f>F18/$F$4</f>
-        <v>0.16467065868263472</v>
+        <v>0.12090680100755667</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>14</v>
-      </c>
-      <c r="B19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2042,11 +2055,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>15</v>
-      </c>
-      <c r="B20" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
@@ -2061,11 +2074,11 @@
       <c r="G20" s="19"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>16</v>
-      </c>
-      <c r="B21" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="34"/>
       <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
@@ -2080,9 +2093,11 @@
       <c r="G21" s="19"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="33"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="34"/>
       <c r="C22" s="18" t="s">
         <v>79</v>
       </c>
@@ -2099,97 +2114,135 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="9">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="9">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="12">
-        <f>SUM(D19:D23)</f>
-        <v>1400</v>
-      </c>
-      <c r="E24" s="20">
-        <f t="shared" si="2"/>
-        <v>3.954802259887006E-2</v>
-      </c>
-      <c r="F24" s="12">
-        <f>SUM(F19:F23)</f>
-        <v>16800</v>
-      </c>
-      <c r="G24" s="20">
-        <f>F24/$F$4</f>
-        <v>4.1916167664670656E-2</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
-        <v>14</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="25">
-        <v>4000</v>
-      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="9">
-        <f t="shared" ref="F25" si="4">D25*12</f>
-        <v>48000</v>
-      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>18</v>
-      </c>
-      <c r="B26" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="34"/>
       <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="12">
-        <f>SUM(D25:D25)</f>
-        <v>4000</v>
+        <f>SUM(D19:D25)</f>
+        <v>4400</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" ref="E26" si="5">D26/$D$4</f>
-        <v>0.11299435028248588</v>
+        <f t="shared" si="2"/>
+        <v>0.10551558752997602</v>
       </c>
       <c r="F26" s="12">
-        <f>SUM(F25:F25)</f>
-        <v>48000</v>
+        <f>SUM(F19:F25)</f>
+        <v>52800</v>
       </c>
       <c r="G26" s="20">
         <f>F26/$F$4</f>
-        <v>0.11976047904191617</v>
+        <v>0.11083123425692695</v>
       </c>
       <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="9">
+        <f t="shared" ref="F27" si="4">D27*12</f>
+        <v>48000</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12">
+        <f>SUM(D27:D27)</f>
+        <v>4000</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" ref="E28" si="5">D28/$D$4</f>
+        <v>9.5923261390887291E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <f>SUM(F27:F27)</f>
+        <v>48000</v>
+      </c>
+      <c r="G28" s="20">
+        <f>F28/$F$4</f>
+        <v>0.10075566750629723</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="A1:H1"/>
@@ -2212,68 +2265,68 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.46484375" customWidth="1"/>
-    <col min="10" max="10" width="12.53125" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="27" t="s">
         <v>75</v>
       </c>
@@ -2283,7 +2336,7 @@
       <c r="F3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -2295,79 +2348,79 @@
       <c r="J3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14">
         <f>SUM(D9,D11)</f>
-        <v>211000</v>
+        <v>511000</v>
       </c>
       <c r="E4" s="14">
         <f>SUM(E9,E11)</f>
-        <v>42200</v>
+        <v>102200</v>
       </c>
       <c r="F4" s="14">
         <f>E4-运营成本!D4</f>
-        <v>6800</v>
-      </c>
-      <c r="G4" s="38"/>
+        <v>60500</v>
+      </c>
+      <c r="G4" s="39"/>
       <c r="H4" s="14">
         <f>SUM(H9,H11)</f>
-        <v>2532000</v>
+        <v>6132000</v>
       </c>
       <c r="I4" s="14">
         <f>SUM(I9,I11)</f>
-        <v>506400</v>
+        <v>1226400</v>
       </c>
       <c r="J4" s="14">
         <f>F4*12</f>
-        <v>81600</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>726000</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="25">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="25">
         <f>D5*0.2</f>
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26"/>
       <c r="H5" s="13">
         <f>D5*12</f>
-        <v>2400000</v>
+        <v>6000000</v>
       </c>
       <c r="I5" s="13">
         <f>H5*0.2</f>
-        <v>480000</v>
+        <v>1200000</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="21"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="18" t="s">
         <v>63</v>
       </c>
@@ -2392,11 +2445,11 @@
       <c r="K6" s="21"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="18" t="s">
         <v>74</v>
       </c>
@@ -2421,11 +2474,11 @@
       <c r="K7" s="21"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="18" t="s">
         <v>64</v>
       </c>
@@ -2439,47 +2492,47 @@
       <c r="K8" s="21"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D5:D8)</f>
-        <v>210000</v>
+        <v>510000</v>
       </c>
       <c r="E9" s="12">
         <f>SUM(E5:E8)</f>
-        <v>42000</v>
+        <v>102000</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9" si="1">D9/$D$4</f>
-        <v>0.99526066350710896</v>
+        <v>0.99804305283757333</v>
       </c>
       <c r="H9" s="12">
         <f>SUM(H5:H8)</f>
-        <v>2520000</v>
+        <v>6120000</v>
       </c>
       <c r="I9" s="12">
         <f>SUM(I5:I8)</f>
-        <v>504000</v>
+        <v>1224000</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="22">
         <f>H9/$H$4</f>
-        <v>0.99526066350710896</v>
+        <v>0.99804305283757333</v>
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -2506,11 +2559,11 @@
       <c r="K10" s="21"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
@@ -2525,7 +2578,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="22">
         <f t="shared" ref="G11" si="2">D11/$D$4</f>
-        <v>4.7393364928909956E-3</v>
+        <v>1.9569471624266144E-3</v>
       </c>
       <c r="H11" s="12">
         <f>SUM(H10:H10)</f>
@@ -2538,15 +2591,15 @@
       <c r="J11" s="12"/>
       <c r="K11" s="22">
         <f>H11/$H$4</f>
-        <v>4.7393364928909956E-3</v>
+        <v>1.9569471624266144E-3</v>
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -2562,11 +2615,11 @@
       <c r="K12" s="21"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2600,17 +2653,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:B9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
